--- a/Previgesst/Templates/EtiquetteCadenassage.xlsx
+++ b/Previgesst/Templates/EtiquetteCadenassage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nancyg\Desktop\PREVIGESST_GITv2\SOURCES\Previgesst\Previgesst\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA\Data\Upwork\Vladimir_App\Code\Previgesst\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,6 +278,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -300,12 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,50 +372,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>1617397</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>162499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13790347" y="12316399"/>
-          <a:ext cx="1887803" cy="437575"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -460,20 +416,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1103047</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2221265</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>162499</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>185773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -492,8 +448,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5189272" y="12316399"/>
-          <a:ext cx="1887803" cy="437575"/>
+          <a:off x="15432440" y="12382500"/>
+          <a:ext cx="1522059" cy="252448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30515</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1552574</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>185773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6021740" y="12382500"/>
+          <a:ext cx="1522059" cy="252448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -773,40 +773,40 @@
   </sheetPr>
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:J29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.26171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.68359375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.15625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.26171875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26171875" style="1"/>
+    <col min="9" max="9" width="21.41796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="1"/>
-    <col min="15" max="15" width="6.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.68359375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.26171875" style="1"/>
+    <col min="15" max="15" width="6.83984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.83984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.41796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.41796875" style="1" customWidth="1"/>
     <col min="20" max="20" width="4" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="1"/>
-    <col min="22" max="22" width="34.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="6.28515625" style="1"/>
+    <col min="21" max="21" width="6.26171875" style="1"/>
+    <col min="22" max="22" width="34.15625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.26171875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="7.15625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="6.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -832,7 +832,7 @@
       <c r="W1" s="8"/>
       <c r="X1" s="9"/>
     </row>
-    <row r="2" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -858,7 +858,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="11"/>
     </row>
-    <row r="3" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -884,7 +884,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -910,7 +910,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -936,7 +936,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -962,7 +962,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -988,7 +988,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1014,7 +1014,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1040,7 +1040,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="1:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1066,97 +1066,97 @@
       <c r="W10" s="3"/>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="1:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:24" ht="51.75" customHeight="1" x14ac:dyDescent="1.45">
+      <c r="A11" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="27"/>
-    </row>
-    <row r="12" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="28" t="s">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="29"/>
+    </row>
+    <row r="12" spans="1:24" ht="39.75" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A12" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="30"/>
-    </row>
-    <row r="13" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28" t="s">
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="32"/>
+    </row>
+    <row r="13" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="30"/>
-    </row>
-    <row r="14" spans="1:24" ht="51.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="32"/>
+    </row>
+    <row r="14" spans="1:24" ht="51.75" customHeight="1" x14ac:dyDescent="1.8">
       <c r="A14" s="10"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1182,7 +1182,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="11"/>
     </row>
-    <row r="15" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="17" t="s">
@@ -1212,7 +1212,7 @@
       <c r="W15" s="19"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1238,7 +1238,7 @@
       <c r="W16" s="17"/>
       <c r="X16" s="11"/>
     </row>
-    <row r="17" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" ht="25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="10"/>
       <c r="B17" s="3"/>
       <c r="C17" s="17" t="s">
@@ -1268,7 +1268,7 @@
       <c r="W17" s="19"/>
       <c r="X17" s="11"/>
     </row>
-    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="1.8">
       <c r="A18" s="10"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1294,7 +1294,7 @@
       <c r="W18" s="17"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="1.8">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="17" t="s">
@@ -1324,7 +1324,7 @@
       <c r="W19" s="19"/>
       <c r="X19" s="11"/>
     </row>
-    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="1.8">
       <c r="A20" s="10"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1350,7 +1350,7 @@
       <c r="W20" s="17"/>
       <c r="X20" s="11"/>
     </row>
-    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="1.8">
       <c r="A21" s="10"/>
       <c r="B21" s="3"/>
       <c r="C21" s="17" t="s">
@@ -1380,7 +1380,7 @@
       <c r="W21" s="19"/>
       <c r="X21" s="11"/>
     </row>
-    <row r="22" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="25.5" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A22" s="10"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -1406,7 +1406,7 @@
       <c r="W22" s="17"/>
       <c r="X22" s="11"/>
     </row>
-    <row r="23" spans="1:24" ht="26.85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" ht="26.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="10"/>
       <c r="B23" s="3"/>
       <c r="C23" s="17" t="s">
@@ -1436,59 +1436,59 @@
       <c r="W23" s="17"/>
       <c r="X23" s="11"/>
     </row>
-    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="11"/>
       <c r="L24" s="3"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
       <c r="X24" s="11"/>
     </row>
-    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="11"/>
       <c r="L25" s="3"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
       <c r="X25" s="11"/>
     </row>
-    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="10"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1514,7 +1514,7 @@
       <c r="W26" s="17"/>
       <c r="X26" s="11"/>
     </row>
-    <row r="27" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A27" s="10"/>
       <c r="B27" s="3"/>
       <c r="C27" s="17" t="s">
@@ -1544,59 +1544,59 @@
       <c r="W27" s="17"/>
       <c r="X27" s="11"/>
     </row>
-    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="10"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="11"/>
       <c r="L28" s="3"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
       <c r="X28" s="11"/>
     </row>
-    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="10"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="11"/>
       <c r="L29" s="3"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
       <c r="X29" s="11"/>
     </row>
-    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A30" s="10"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1622,7 +1622,7 @@
       <c r="W30" s="17"/>
       <c r="X30" s="11"/>
     </row>
-    <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="10"/>
       <c r="B31" s="3"/>
       <c r="C31" s="17" t="s">
@@ -1652,7 +1652,7 @@
       <c r="W31" s="19"/>
       <c r="X31" s="11"/>
     </row>
-    <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1678,7 +1678,7 @@
       <c r="W32" s="17"/>
       <c r="X32" s="11"/>
     </row>
-    <row r="33" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A33" s="10"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1704,7 +1704,7 @@
       <c r="W33" s="17"/>
       <c r="X33" s="11"/>
     </row>
-    <row r="34" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="10"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1730,7 +1730,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="11"/>
     </row>
-    <row r="35" spans="1:24" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" ht="24.9" x14ac:dyDescent="0.8">
       <c r="A35" s="10"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1756,7 +1756,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="11"/>
     </row>
-    <row r="36" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" ht="14.1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -1782,7 +1782,7 @@
       <c r="W36" s="13"/>
       <c r="X36" s="14"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1807,7 +1807,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1832,7 +1832,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1856,7 +1856,7 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1878,7 +1878,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1900,7 +1900,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
